--- a/GRE Sid.xlsx
+++ b/GRE Sid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidbi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC0A5D3-D79B-467A-BD52-7C2868F73BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC54C96-4254-40EB-AFF1-27CBE10EC47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51C7E4EE-6BCE-4980-86C9-7353D8DA4AB6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="379">
   <si>
     <t>Word</t>
   </si>
@@ -1555,6 +1555,12 @@
       </rPr>
       <t xml:space="preserve"> concise; brief</t>
     </r>
+  </si>
+  <si>
+    <t>Insipid</t>
+  </si>
+  <si>
+    <t>tasteless</t>
   </si>
 </sst>
 </file>
@@ -1645,24 +1651,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1972,11 +1961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B67267A-B4C4-44C9-BD53-1D7B48DCE3D9}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,6 +3920,18 @@
         <v>346</v>
       </c>
       <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D162" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GRE Sid.xlsx
+++ b/GRE Sid.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidbi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC54C96-4254-40EB-AFF1-27CBE10EC47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B9C46-44D5-40F9-85FF-F6DD9F7678FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51C7E4EE-6BCE-4980-86C9-7353D8DA4AB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="GRE 300" sheetId="5" r:id="rId1"/>
-    <sheet name="Barron's" sheetId="2" r:id="rId2"/>
-    <sheet name="The Economist" sheetId="3" r:id="rId3"/>
-    <sheet name="Others" sheetId="7" r:id="rId4"/>
-    <sheet name="Grouping of Words" sheetId="6" r:id="rId5"/>
-    <sheet name="Magoosh" sheetId="4" r:id="rId6"/>
+    <sheet name="Barron's - GRE 300" sheetId="5" r:id="rId1"/>
+    <sheet name="Barron's - Remaining 500" sheetId="7" r:id="rId2"/>
+    <sheet name="Others" sheetId="3" r:id="rId3"/>
+    <sheet name="Grouping of Words" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GRE 300'!$A$1:$D$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Barron''s - GRE 300'!$A$1:$D$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="379">
   <si>
     <t>Word</t>
   </si>
@@ -1631,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1645,8 +1643,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1964,8 +1970,8 @@
   <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3805,10 +3811,10 @@
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>354</v>
       </c>
       <c r="D152" s="6"/>
@@ -3817,10 +3823,10 @@
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>353</v>
       </c>
       <c r="D153" s="6"/>
@@ -3829,10 +3835,10 @@
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>352</v>
       </c>
       <c r="D154" s="6"/>
@@ -3841,10 +3847,10 @@
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>351</v>
       </c>
       <c r="D155" s="6"/>
@@ -3853,10 +3859,10 @@
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="7" t="s">
         <v>350</v>
       </c>
       <c r="D156" s="6"/>
@@ -3865,10 +3871,10 @@
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>302</v>
       </c>
       <c r="D157" s="6"/>
@@ -3877,10 +3883,10 @@
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D158" s="6"/>
@@ -3889,10 +3895,10 @@
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>348</v>
       </c>
       <c r="D159" s="6"/>
@@ -3901,10 +3907,10 @@
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>347</v>
       </c>
       <c r="D160" s="6"/>
@@ -3913,10 +3919,10 @@
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>346</v>
       </c>
       <c r="D161" s="6"/>
@@ -3925,10 +3931,10 @@
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>378</v>
       </c>
       <c r="D162" s="6"/>
@@ -3940,19 +3946,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664DE637-B043-4B46-A6B0-3F58A12984AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9DB28-7DAC-499A-86D2-D298A19D368D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,50 +3972,68 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4021,10 +4044,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6DC6FA-DC0B-47A6-8D17-DEB101FE8219}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4045,19 +4069,124 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4066,112 +4195,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F3CACA-3E97-429B-B7A7-409750E80E86}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8BE501-0A60-4C46-B977-290D1D72852D}">
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4240,34 +4269,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7C3A9F-5AF6-4B97-9327-95042A785AC5}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="82.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GRE Sid.xlsx
+++ b/GRE Sid.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidbi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021B9C46-44D5-40F9-85FF-F6DD9F7678FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A55C29-189B-4222-95E8-21B59C7FF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51C7E4EE-6BCE-4980-86C9-7353D8DA4AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{51C7E4EE-6BCE-4980-86C9-7353D8DA4AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Barron's - GRE 300" sheetId="5" r:id="rId1"/>
-    <sheet name="Barron's - Remaining 500" sheetId="7" r:id="rId2"/>
-    <sheet name="Others" sheetId="3" r:id="rId3"/>
-    <sheet name="Grouping of Words" sheetId="6" r:id="rId4"/>
+    <sheet name="Others" sheetId="3" r:id="rId2"/>
+    <sheet name="Grouping of Words" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Barron''s - GRE 300'!$A$1:$D$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Barron''s - GRE 300'!$A$1:$D$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="625">
   <si>
     <t>Word</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>relation b/w cause &amp; effect</t>
-  </si>
-  <si>
-    <t>trickery; fraud</t>
   </si>
   <si>
     <r>
@@ -1560,12 +1557,974 @@
   <si>
     <t>tasteless</t>
   </si>
+  <si>
+    <t>Abate</t>
+  </si>
+  <si>
+    <t>to decrease; reduce</t>
+  </si>
+  <si>
+    <t>Abdicate</t>
+  </si>
+  <si>
+    <t>to give up a position, right, or power</t>
+  </si>
+  <si>
+    <t>Abject</t>
+  </si>
+  <si>
+    <t>miserable; pitiful</t>
+  </si>
+  <si>
+    <t>Abjure</t>
+  </si>
+  <si>
+    <t>to reject; abandon formally</t>
+  </si>
+  <si>
+    <t>Abscission</t>
+  </si>
+  <si>
+    <t>the act of cutting</t>
+  </si>
+  <si>
+    <t>Abscond</t>
+  </si>
+  <si>
+    <t>to depart secretly</t>
+  </si>
+  <si>
+    <t>Abstinence</t>
+  </si>
+  <si>
+    <t>giving up of certain pleasures</t>
+  </si>
+  <si>
+    <t>Abysmal</t>
+  </si>
+  <si>
+    <t>very bad</t>
+  </si>
+  <si>
+    <t>Accretion</t>
+  </si>
+  <si>
+    <t>growth in size</t>
+  </si>
+  <si>
+    <t>Accrue</t>
+  </si>
+  <si>
+    <t>to accumulate</t>
+  </si>
+  <si>
+    <t>Adamant</t>
+  </si>
+  <si>
+    <t>uncompromising</t>
+  </si>
+  <si>
+    <t>Adjunct</t>
+  </si>
+  <si>
+    <t>something added, attached or joined</t>
+  </si>
+  <si>
+    <t>Admonish</t>
+  </si>
+  <si>
+    <t>to reprimand</t>
+  </si>
+  <si>
+    <t>Adulterate</t>
+  </si>
+  <si>
+    <t>impure</t>
+  </si>
+  <si>
+    <t>Affected</t>
+  </si>
+  <si>
+    <t>pretentious; phony</t>
+  </si>
+  <si>
+    <t>affected speech</t>
+  </si>
+  <si>
+    <t>Affinity</t>
+  </si>
+  <si>
+    <t>fondness; liking</t>
+  </si>
+  <si>
+    <t>Evince</t>
+  </si>
+  <si>
+    <t>reveal; show; display; indicate</t>
+  </si>
+  <si>
+    <t>Reprobate</t>
+  </si>
+  <si>
+    <t>roguish; bad; wicked</t>
+  </si>
+  <si>
+    <t>Belabor</t>
+  </si>
+  <si>
+    <t>over-elaborate; discuss at length</t>
+  </si>
+  <si>
+    <t>Indistinct</t>
+  </si>
+  <si>
+    <t>indecipherable; illegible</t>
+  </si>
+  <si>
+    <t>Peremptory</t>
+  </si>
+  <si>
+    <t>haughtily insisting on immediate attention</t>
+  </si>
+  <si>
+    <t>"‘Just do it!’ came the peremptory reply"</t>
+  </si>
+  <si>
+    <t>Adroitness</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">skilled, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deftness, adeptness, dexterity</t>
+    </r>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">standard; example; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>archetype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (a typical example)</t>
+    </r>
+  </si>
+  <si>
+    <t>Armistice</t>
+  </si>
+  <si>
+    <t>truce</t>
+  </si>
+  <si>
+    <t>Suffuse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spread through; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permeate; pervade</t>
+    </r>
+  </si>
+  <si>
+    <t>Impiety</t>
+  </si>
+  <si>
+    <t>disrespect; lack of piety or reverence</t>
+  </si>
+  <si>
+    <t>"a pretty odious character"</t>
+  </si>
+  <si>
+    <t>Odious</t>
+  </si>
+  <si>
+    <t>extremely unpleasant &amp; repulsive</t>
+  </si>
+  <si>
+    <t>Epiphany</t>
+  </si>
+  <si>
+    <t>moment of sudden revelation or insight</t>
+  </si>
+  <si>
+    <t>Supplant</t>
+  </si>
+  <si>
+    <t>to overthrow; topple</t>
+  </si>
+  <si>
+    <t>Supplicant</t>
+  </si>
+  <si>
+    <t>who makes a plea to someone in authority</t>
+  </si>
+  <si>
+    <t>Recast</t>
+  </si>
+  <si>
+    <t>reshape; present or organize in a different form</t>
+  </si>
+  <si>
+    <t>Raffish or Rakish</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rakish;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> unconventional and slightly disreputable in an attractive way</t>
+    </r>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>Imprecation; anathema (can also mean extreme dislike or abhorrence); malediction</t>
+  </si>
+  <si>
+    <t>Imprecation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anathema; malediction; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curse</t>
+    </r>
+  </si>
+  <si>
+    <t>Trudge</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plod; tramp; lumber;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> walk slowly with heavy steps</t>
+    </r>
+  </si>
+  <si>
+    <t>Dulcet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mellifluous;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> melodious</t>
+    </r>
+  </si>
+  <si>
+    <t>Multifarious</t>
+  </si>
+  <si>
+    <t>many and of various types</t>
+  </si>
+  <si>
+    <t>Undulating</t>
+  </si>
+  <si>
+    <t>rising and falling form or outline</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trickery; fraud; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finagle</t>
+    </r>
+  </si>
+  <si>
+    <t>Finagle</t>
+  </si>
+  <si>
+    <t>to deceive and manipulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paragon; Paradigm; Epitome; Archetype; </t>
+  </si>
+  <si>
+    <t>PPEA</t>
+  </si>
+  <si>
+    <t>Levee</t>
+  </si>
+  <si>
+    <t>embankment to prevent overflow of river</t>
+  </si>
+  <si>
+    <t>Hauteur</t>
+  </si>
+  <si>
+    <t>arrogance, pride</t>
+  </si>
+  <si>
+    <t>Entreaty</t>
+  </si>
+  <si>
+    <t>an earnest or humble request</t>
+  </si>
+  <si>
+    <t>Egregious</t>
+  </si>
+  <si>
+    <t>shockingly bad</t>
+  </si>
+  <si>
+    <t>Qualify</t>
+  </si>
+  <si>
+    <t>his large heart always qualify his errors</t>
+  </si>
+  <si>
+    <t>Involved</t>
+  </si>
+  <si>
+    <t>very complicated and difficult to comprehend</t>
+  </si>
+  <si>
+    <t>Physics lecture became very involved</t>
+  </si>
+  <si>
+    <t>Artful</t>
+  </si>
+  <si>
+    <t>exhibiting artistic skill</t>
+  </si>
+  <si>
+    <t>genuine</t>
+  </si>
+  <si>
+    <t>Betray</t>
+  </si>
+  <si>
+    <t>to reveal something unintentionally</t>
+  </si>
+  <si>
+    <t>Venality</t>
+  </si>
+  <si>
+    <t>susceptible to corruption</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extenuate;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> make less severe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"a society more </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attuned to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> consumerism than ideology"</t>
+    </r>
+  </si>
+  <si>
+    <t>Attuned</t>
+  </si>
+  <si>
+    <t>Vacuity</t>
+  </si>
+  <si>
+    <t>Inanity; lack of thought or intelligence</t>
+  </si>
+  <si>
+    <t>Temerity</t>
+  </si>
+  <si>
+    <t>audacity</t>
+  </si>
+  <si>
+    <t>Flimsy</t>
+  </si>
+  <si>
+    <t>weak and easily damaged</t>
+  </si>
+  <si>
+    <t>Waffle</t>
+  </si>
+  <si>
+    <t>fail to make up one's mind</t>
+  </si>
+  <si>
+    <t>Minatory</t>
+  </si>
+  <si>
+    <t>expressing or conveying a threat</t>
+  </si>
+  <si>
+    <t>Trifling</t>
+  </si>
+  <si>
+    <t>trivial, unimportant</t>
+  </si>
+  <si>
+    <t>Verve</t>
+  </si>
+  <si>
+    <t>vigour and spirit or enthusiasm</t>
+  </si>
+  <si>
+    <t>Didactic</t>
+  </si>
+  <si>
+    <t>intended to teach; excessively instructive</t>
+  </si>
+  <si>
+    <t>Glut</t>
+  </si>
+  <si>
+    <t>an excessive supply</t>
+  </si>
+  <si>
+    <t>HR inbox glutted with resumes</t>
+  </si>
+  <si>
+    <t>Fortuitous</t>
+  </si>
+  <si>
+    <t>occuring by chance</t>
+  </si>
+  <si>
+    <t>Querulous</t>
+  </si>
+  <si>
+    <t>habitually complaining</t>
+  </si>
+  <si>
+    <t>Volubility</t>
+  </si>
+  <si>
+    <t>a didactic book</t>
+  </si>
+  <si>
+    <t>Perfidy</t>
+  </si>
+  <si>
+    <t>betrayal; breach of trust</t>
+  </si>
+  <si>
+    <t>Incisive</t>
+  </si>
+  <si>
+    <t>ability to recognize or draw fine distinctions</t>
+  </si>
+  <si>
+    <t>the quality of talking fluently or incessantly; talkativeness</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">receptive or aware; accustomed; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acclimatized</t>
+    </r>
+  </si>
+  <si>
+    <t>Blandishment</t>
+  </si>
+  <si>
+    <t>flattery</t>
+  </si>
+  <si>
+    <t>Blasé</t>
+  </si>
+  <si>
+    <t>bored and unconcerned</t>
+  </si>
+  <si>
+    <t>Brazen</t>
+  </si>
+  <si>
+    <t>bold; shameless</t>
+  </si>
+  <si>
+    <t>Canard</t>
+  </si>
+  <si>
+    <t>hoax; rumor</t>
+  </si>
+  <si>
+    <t>Callous</t>
+  </si>
+  <si>
+    <t>thick-skinned; insensitive</t>
+  </si>
+  <si>
+    <t>Captious</t>
+  </si>
+  <si>
+    <t>fault finding</t>
+  </si>
+  <si>
+    <t>Cantankerous</t>
+  </si>
+  <si>
+    <t>bad tempered, argumentative</t>
+  </si>
+  <si>
+    <t>Carping</t>
+  </si>
+  <si>
+    <t>complaining; fault finding</t>
+  </si>
+  <si>
+    <t>Cardinal</t>
+  </si>
+  <si>
+    <t>of utmost importance</t>
+  </si>
+  <si>
+    <t>Cataclysm</t>
+  </si>
+  <si>
+    <t>calamity; catastrophe</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Captious; carping</t>
+  </si>
+  <si>
+    <t>Caucus</t>
+  </si>
+  <si>
+    <t>smaller group within an organization</t>
+  </si>
+  <si>
+    <t>Chastened</t>
+  </si>
+  <si>
+    <t>humbled</t>
+  </si>
+  <si>
+    <t>chastened by his recent failures</t>
+  </si>
+  <si>
+    <t>Circuitous</t>
+  </si>
+  <si>
+    <t>roundabout</t>
+  </si>
+  <si>
+    <t>circuitous path</t>
+  </si>
+  <si>
+    <t>Cloister</t>
+  </si>
+  <si>
+    <t>to confine; seclude</t>
+  </si>
+  <si>
+    <t>the writer cloistered herself</t>
+  </si>
+  <si>
+    <t>Contend</t>
+  </si>
+  <si>
+    <t>to assert</t>
+  </si>
+  <si>
+    <t>Contention</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>he contends that the judge is wrong</t>
+  </si>
+  <si>
+    <t>Contention (2)</t>
+  </si>
+  <si>
+    <t>strong disagreement or dispute</t>
+  </si>
+  <si>
+    <t>Continence</t>
+  </si>
+  <si>
+    <t>self-control, abstain from sexual activity</t>
+  </si>
+  <si>
+    <t>Consecrate</t>
+  </si>
+  <si>
+    <t>to declare sacred</t>
+  </si>
+  <si>
+    <t>Contumacious</t>
+  </si>
+  <si>
+    <t>disobedient; rebellious</t>
+  </si>
+  <si>
+    <t>Cozen</t>
+  </si>
+  <si>
+    <t>trickery; fraud</t>
+  </si>
+  <si>
+    <t>Diaphanous</t>
+  </si>
+  <si>
+    <t>"a diaphanous dress of pale gold"</t>
+  </si>
+  <si>
+    <t>(especially of fabric) light, delicate, and translucent</t>
+  </si>
+  <si>
+    <t>Dirge</t>
+  </si>
+  <si>
+    <t>elegy</t>
+  </si>
+  <si>
+    <t>Discerning</t>
+  </si>
+  <si>
+    <t>Discredit</t>
+  </si>
+  <si>
+    <t>Discredit (2)</t>
+  </si>
+  <si>
+    <t>disprove</t>
+  </si>
+  <si>
+    <t>his theory was discredited</t>
+  </si>
+  <si>
+    <t>disgrace, dishonour</t>
+  </si>
+  <si>
+    <t>attempt to discredit him</t>
+  </si>
+  <si>
+    <t>judicious; having or showing good judgement</t>
+  </si>
+  <si>
+    <t>Discretion</t>
+  </si>
+  <si>
+    <t>caution; avoid causing offence or revealing confidential information</t>
+  </si>
+  <si>
+    <t>she knew she could rely on his discretion</t>
+  </si>
+  <si>
+    <t>Discretion (2)</t>
+  </si>
+  <si>
+    <t>freedom to decide</t>
+  </si>
+  <si>
+    <t>use your discretion</t>
+  </si>
+  <si>
+    <t>Circumspection</t>
+  </si>
+  <si>
+    <t>being wary and unwilling to take risks; prudent</t>
+  </si>
+  <si>
+    <t>Distill</t>
+  </si>
+  <si>
+    <t>Distrait</t>
+  </si>
+  <si>
+    <t>Divest</t>
+  </si>
+  <si>
+    <t>to strip; deprieve; rid</t>
+  </si>
+  <si>
+    <t>preoccupied and inattentive</t>
+  </si>
+  <si>
+    <t>extract essential elements</t>
+  </si>
+  <si>
+    <t>Dross</t>
+  </si>
+  <si>
+    <t>worthless or trivial</t>
+  </si>
+  <si>
+    <t>Elysian</t>
+  </si>
+  <si>
+    <t>blissful; delightful</t>
+  </si>
+  <si>
+    <t>Emollient</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">soothing; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mollifying</t>
+    </r>
+  </si>
+  <si>
+    <t>Encomium</t>
+  </si>
+  <si>
+    <t>formal expression of praise</t>
+  </si>
+  <si>
+    <t>Enunciate</t>
+  </si>
+  <si>
+    <t>to pronounce clearly</t>
+  </si>
+  <si>
+    <t>Epistemology</t>
+  </si>
+  <si>
+    <t>theory of knowledge (philosophy)</t>
+  </si>
+  <si>
+    <t>Ethnocentric</t>
+  </si>
+  <si>
+    <t>thinking that one's own group is superior</t>
+  </si>
+  <si>
+    <t>Etiology</t>
+  </si>
+  <si>
+    <t>cause or origin</t>
+  </si>
+  <si>
+    <t>Etymology</t>
+  </si>
+  <si>
+    <t>origin &amp; history of a word</t>
+  </si>
+  <si>
+    <t>Eugenics</t>
+  </si>
+  <si>
+    <t>Eulogy</t>
+  </si>
+  <si>
+    <t>Evocative</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encomium or panagyric,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> especially for someone who died</t>
+    </r>
+  </si>
+  <si>
+    <t>bringing strong images, memories, or feelings to mind</t>
+  </si>
+  <si>
+    <t>"powerfully evocative lyrics"</t>
+  </si>
+  <si>
+    <t>study of improving genes</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>demand by authority</t>
+  </si>
+  <si>
+    <t>exact taxes from all</t>
+  </si>
+  <si>
+    <t>Exhort</t>
+  </si>
+  <si>
+    <t>strongly urge or encourage</t>
+  </si>
+  <si>
+    <t>Expatiate</t>
+  </si>
+  <si>
+    <t>speak or write at length</t>
+  </si>
+  <si>
+    <t>Expatriate</t>
+  </si>
+  <si>
+    <t>send into exile</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,6 +2536,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1602,7 +2574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1625,11 +2597,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1644,20 +2627,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE4D6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1969,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B67267A-B4C4-44C9-BD53-1D7B48DCE3D9}">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2349,7 +3348,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -2358,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>88</v>
@@ -2418,10 +3417,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -2454,7 +3453,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>110</v>
@@ -2517,7 +3516,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>115</v>
+        <v>457</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -2526,10 +3525,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -2541,7 +3540,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -2553,7 +3552,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -2565,7 +3564,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -2574,10 +3573,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -2589,7 +3588,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -2601,7 +3600,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -2613,7 +3612,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -2625,7 +3624,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -2637,7 +3636,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -2649,7 +3648,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -2661,7 +3660,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -2673,7 +3672,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -2682,10 +3681,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -2697,7 +3696,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -2709,7 +3708,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -2718,10 +3717,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -2733,7 +3732,7 @@
         <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -2745,7 +3744,7 @@
         <v>58</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -2757,7 +3756,7 @@
         <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -2769,7 +3768,7 @@
         <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -2781,7 +3780,7 @@
         <v>61</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -2790,10 +3789,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -2802,10 +3801,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -2814,10 +3813,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -2826,10 +3825,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2838,10 +3837,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -2850,10 +3849,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -2862,10 +3861,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2874,10 +3873,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -2886,10 +3885,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -2898,10 +3897,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2910,10 +3909,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2922,10 +3921,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -2934,10 +3933,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2946,10 +3945,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -2958,10 +3957,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -2970,10 +3969,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2982,10 +3981,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -2994,10 +3993,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -3006,10 +4005,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -3018,10 +4017,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -3030,10 +4029,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -3042,10 +4041,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -3054,10 +4053,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -3066,13 +4065,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,10 +4079,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -3092,10 +4091,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -3104,10 +4103,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -3116,10 +4115,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -3128,10 +4127,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -3140,10 +4139,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -3152,10 +4151,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -3164,10 +4163,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -3176,7 +4175,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>108</v>
@@ -3188,10 +4187,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -3200,10 +4199,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D102" s="2"/>
     </row>
@@ -3212,10 +4211,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D103" s="2"/>
     </row>
@@ -3224,10 +4223,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -3236,10 +4235,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -3248,13 +4247,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,10 +4261,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D107" s="2"/>
     </row>
@@ -3274,10 +4273,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -3286,10 +4285,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -3298,13 +4297,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3312,10 +4311,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -3324,10 +4323,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -3336,10 +4335,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -3348,13 +4347,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3362,10 +4361,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -3374,10 +4373,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -3386,10 +4385,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -3398,13 +4397,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,10 +4411,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -3424,10 +4423,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -3436,13 +4435,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,349 +4449,349 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D122" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D123" s="6"/>
+        <v>291</v>
+      </c>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D124" s="6"/>
+        <v>293</v>
+      </c>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D126" s="6"/>
+        <v>309</v>
+      </c>
+      <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D127" s="6"/>
+        <v>297</v>
+      </c>
+      <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D128" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D129" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D130" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D131" s="6"/>
+        <v>302</v>
+      </c>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D132" s="6"/>
+        <v>303</v>
+      </c>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D135" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D136" s="6"/>
+        <v>316</v>
+      </c>
+      <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D137" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D138" s="6"/>
+        <v>318</v>
+      </c>
+      <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D139" s="6"/>
+        <v>320</v>
+      </c>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D140" s="6"/>
+        <v>321</v>
+      </c>
+      <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D141" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D142" s="6"/>
+        <v>323</v>
+      </c>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D143" s="6"/>
+        <v>324</v>
+      </c>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D144" s="6"/>
+        <v>325</v>
+      </c>
+      <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D145" s="6"/>
+        <v>326</v>
+      </c>
+      <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D146" s="6"/>
+        <v>327</v>
+      </c>
+      <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D147" s="6"/>
+        <v>328</v>
+      </c>
+      <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D149" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3800,144 +4799,144 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D151" s="6"/>
+        <v>333</v>
+      </c>
+      <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D152" s="6"/>
+        <v>353</v>
+      </c>
+      <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D153" s="6"/>
+        <v>352</v>
+      </c>
+      <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D154" s="6"/>
+        <v>351</v>
+      </c>
+      <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D155" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D156" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D157" s="6"/>
+        <v>301</v>
+      </c>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D158" s="6"/>
+        <v>348</v>
+      </c>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D159" s="6"/>
+        <v>347</v>
+      </c>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D160" s="6"/>
+        <v>346</v>
+      </c>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D161" s="6"/>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D162" s="6"/>
+      <c r="D162" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3946,118 +4945,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9DB28-7DAC-499A-86D2-D298A19D368D}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6DC6FA-DC0B-47A6-8D17-DEB101FE8219}">
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6DC6FA-DC0B-47A6-8D17-DEB101FE8219}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -4067,140 +4970,1401 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>367</v>
+      <c r="B9" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>375</v>
-      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>88</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>91</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>92</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>101</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>103</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>107</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>109</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>111</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D113" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8BE501-0A60-4C46-B977-290D1D72852D}">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,62 +6375,251 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
         <v>183</v>
-      </c>
-      <c r="C2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
         <v>368</v>
-      </c>
-      <c r="C3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
-      </c>
-      <c r="C5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" t="s">
         <v>295</v>
-      </c>
-      <c r="C6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
         <v>355</v>
       </c>
-      <c r="C7" t="s">
-        <v>356</v>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3773572-B413-4E17-A4B9-B81287BE7FF9}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GRE Sid.xlsx
+++ b/GRE Sid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidbi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A55C29-189B-4222-95E8-21B59C7FF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C73327-472A-4B79-A891-5B2E9E7A15E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{51C7E4EE-6BCE-4980-86C9-7353D8DA4AB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51C7E4EE-6BCE-4980-86C9-7353D8DA4AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Barron's - GRE 300" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="694">
   <si>
     <t>Word</t>
   </si>
@@ -881,9 +881,6 @@
     <t>Facetious</t>
   </si>
   <si>
-    <t>flippant, frivolous</t>
-  </si>
-  <si>
     <t>calmness</t>
   </si>
   <si>
@@ -2175,9 +2172,6 @@
     <t>Brazen</t>
   </si>
   <si>
-    <t>bold; shameless</t>
-  </si>
-  <si>
     <t>Canard</t>
   </si>
   <si>
@@ -2431,9 +2425,6 @@
     <t>Epistemology</t>
   </si>
   <si>
-    <t>theory of knowledge (philosophy)</t>
-  </si>
-  <si>
     <t>Ethnocentric</t>
   </si>
   <si>
@@ -2518,6 +2509,222 @@
   </si>
   <si>
     <t>send into exile</t>
+  </si>
+  <si>
+    <t>Explicate</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>Expository</t>
+  </si>
+  <si>
+    <t>explanatory</t>
+  </si>
+  <si>
+    <t>Extirpate</t>
+  </si>
+  <si>
+    <t>uproot, destroy completely</t>
+  </si>
+  <si>
+    <t>Extrinsic</t>
+  </si>
+  <si>
+    <t>not inherent</t>
+  </si>
+  <si>
+    <t>Factotum</t>
+  </si>
+  <si>
+    <t>handyman, who does all kind of work</t>
+  </si>
+  <si>
+    <t>Fallow</t>
+  </si>
+  <si>
+    <t>uncultivated</t>
+  </si>
+  <si>
+    <t>Fawning</t>
+  </si>
+  <si>
+    <t>seek favour by flattering</t>
+  </si>
+  <si>
+    <t>Feral</t>
+  </si>
+  <si>
+    <t>wild, untamed</t>
+  </si>
+  <si>
+    <t>Fetid</t>
+  </si>
+  <si>
+    <t>smelly</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>official order or decree</t>
+  </si>
+  <si>
+    <t>Filibuster</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>impressive skill</t>
+  </si>
+  <si>
+    <t>delay tactics (prolonged speech in parliament)</t>
+  </si>
+  <si>
+    <t>Florid</t>
+  </si>
+  <si>
+    <t>red-faced, reddish</t>
+  </si>
+  <si>
+    <t>florid face</t>
+  </si>
+  <si>
+    <t>Florid (2)</t>
+  </si>
+  <si>
+    <t>excessively elaborate</t>
+  </si>
+  <si>
+    <t>Flourish</t>
+  </si>
+  <si>
+    <t>Flourish (2)</t>
+  </si>
+  <si>
+    <t>ornamentation or embellishment</t>
+  </si>
+  <si>
+    <t>speech full of rhetorical flourishes</t>
+  </si>
+  <si>
+    <t>Formidable</t>
+  </si>
+  <si>
+    <t>Redoubtable</t>
+  </si>
+  <si>
+    <t>formidable, intimidating</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>sink, fail, collapse</t>
+  </si>
+  <si>
+    <t>Flounder</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>intimidating, threataning</t>
+  </si>
+  <si>
+    <t>to grow</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>continuous flow or movement</t>
+  </si>
+  <si>
+    <t>Philosophy: theory of knowledge</t>
+  </si>
+  <si>
+    <t>bold &amp; shameless</t>
+  </si>
+  <si>
+    <t>flippant, frivolous, inappropriate humour</t>
+  </si>
+  <si>
+    <t>Fracas</t>
+  </si>
+  <si>
+    <t>loud quarrel</t>
+  </si>
+  <si>
+    <t>Fresco</t>
+  </si>
+  <si>
+    <t>painting on plaster</t>
+  </si>
+  <si>
+    <t>Frieze</t>
+  </si>
+  <si>
+    <t>Froward</t>
+  </si>
+  <si>
+    <t>difficult to deal with, obstinately disobedient</t>
+  </si>
+  <si>
+    <t>Fulsome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excessive flattery to an extent it can be disgusting </t>
+  </si>
+  <si>
+    <t>Gauche</t>
+  </si>
+  <si>
+    <t>uncouth</t>
+  </si>
+  <si>
+    <t>Gerrymander</t>
+  </si>
+  <si>
+    <t>manipulate boundaries of an electoral constituency to favour one party</t>
+  </si>
+  <si>
+    <t>"an attempt to gerrymander the election result"</t>
+  </si>
+  <si>
+    <t>Glib</t>
+  </si>
+  <si>
+    <t>fluent but insincere and shallow</t>
+  </si>
+  <si>
+    <t>Goad</t>
+  </si>
+  <si>
+    <t>repeatedly pester</t>
+  </si>
+  <si>
+    <t>a broad band of sculpture on painting on a wall</t>
+  </si>
+  <si>
+    <t>Grouse</t>
+  </si>
+  <si>
+    <t>Hallowed</t>
+  </si>
+  <si>
+    <t>Gustatory</t>
+  </si>
+  <si>
+    <t>made holy; greatly revered</t>
+  </si>
+  <si>
+    <t>sense of taste</t>
+  </si>
+  <si>
+    <t>to complain</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2643,20 +2850,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2968,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B67267A-B4C4-44C9-BD53-1D7B48DCE3D9}">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3348,7 +3549,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -3357,7 +3558,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>88</v>
@@ -3417,10 +3618,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -3453,7 +3654,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>110</v>
@@ -3516,7 +3717,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -3525,7 +3726,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>115</v>
@@ -3573,7 +3774,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>118</v>
@@ -3681,7 +3882,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>128</v>
@@ -3717,7 +3918,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>131</v>
@@ -3993,7 +4194,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>171</v>
@@ -4202,7 +4403,7 @@
         <v>213</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D102" s="2"/>
     </row>
@@ -4214,7 +4415,7 @@
         <v>214</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D103" s="2"/>
     </row>
@@ -4226,7 +4427,7 @@
         <v>215</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -4238,7 +4439,7 @@
         <v>216</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -4250,10 +4451,10 @@
         <v>217</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4264,7 +4465,7 @@
         <v>218</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D107" s="2"/>
     </row>
@@ -4276,7 +4477,7 @@
         <v>219</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D108" s="2"/>
     </row>
@@ -4285,10 +4486,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -4300,10 +4501,10 @@
         <v>220</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,7 +4515,7 @@
         <v>221</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D111" s="2"/>
     </row>
@@ -4326,7 +4527,7 @@
         <v>223</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -4338,7 +4539,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D113" s="2"/>
     </row>
@@ -4350,10 +4551,10 @@
         <v>225</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4364,7 +4565,7 @@
         <v>226</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -4376,7 +4577,7 @@
         <v>227</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>228</v>
+        <v>668</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -4385,10 +4586,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D117" s="2"/>
     </row>
@@ -4397,13 +4598,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,10 +4612,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D119" s="2"/>
     </row>
@@ -4423,10 +4624,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D120" s="2"/>
     </row>
@@ -4435,13 +4636,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,10 +4650,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D122" s="7"/>
     </row>
@@ -4461,10 +4662,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D123" s="7"/>
     </row>
@@ -4473,10 +4674,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D124" s="7"/>
     </row>
@@ -4485,10 +4686,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D125" s="7"/>
     </row>
@@ -4497,10 +4698,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D126" s="7"/>
     </row>
@@ -4509,10 +4710,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D127" s="7"/>
     </row>
@@ -4521,10 +4722,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D128" s="7"/>
     </row>
@@ -4533,10 +4734,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D129" s="7"/>
     </row>
@@ -4545,10 +4746,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D130" s="7"/>
     </row>
@@ -4557,10 +4758,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D131" s="7"/>
     </row>
@@ -4569,10 +4770,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D132" s="7"/>
     </row>
@@ -4581,10 +4782,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D133" s="7"/>
     </row>
@@ -4593,10 +4794,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D134" s="7"/>
     </row>
@@ -4605,10 +4806,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D135" s="7"/>
     </row>
@@ -4617,10 +4818,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D136" s="7"/>
     </row>
@@ -4629,10 +4830,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D137" s="7"/>
     </row>
@@ -4641,10 +4842,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D138" s="7"/>
     </row>
@@ -4653,10 +4854,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D139" s="7"/>
     </row>
@@ -4665,10 +4866,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D140" s="7"/>
     </row>
@@ -4677,10 +4878,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D141" s="7"/>
     </row>
@@ -4689,10 +4890,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D142" s="7"/>
     </row>
@@ -4701,10 +4902,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D143" s="7"/>
     </row>
@@ -4713,10 +4914,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D144" s="7"/>
     </row>
@@ -4725,10 +4926,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D145" s="7"/>
     </row>
@@ -4737,10 +4938,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D146" s="7"/>
     </row>
@@ -4749,10 +4950,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D147" s="7"/>
     </row>
@@ -4761,10 +4962,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D148" s="7"/>
     </row>
@@ -4773,10 +4974,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D149" s="7"/>
     </row>
@@ -4785,13 +4986,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,10 +5000,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D151" s="7"/>
     </row>
@@ -4811,10 +5012,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D152" s="7"/>
     </row>
@@ -4823,10 +5024,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D153" s="7"/>
     </row>
@@ -4835,10 +5036,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D154" s="7"/>
     </row>
@@ -4847,10 +5048,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D155" s="7"/>
     </row>
@@ -4859,10 +5060,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D156" s="7"/>
     </row>
@@ -4871,10 +5072,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D157" s="7"/>
     </row>
@@ -4883,10 +5084,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D158" s="7"/>
     </row>
@@ -4895,10 +5096,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D159" s="7"/>
     </row>
@@ -4907,10 +5108,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D160" s="7"/>
     </row>
@@ -4919,10 +5120,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="D161" s="7"/>
     </row>
@@ -4931,10 +5132,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="D162" s="7"/>
     </row>
@@ -4946,7 +5147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6DC6FA-DC0B-47A6-8D17-DEB101FE8219}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5001,10 +5202,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -5013,10 +5214,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -5025,10 +5226,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -5037,10 +5238,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>363</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -5049,10 +5250,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -5061,10 +5262,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -5073,10 +5274,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -5085,10 +5286,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -5097,10 +5298,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>374</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -5109,10 +5310,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -5121,10 +5322,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -5133,10 +5334,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -5145,10 +5346,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>418</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -5157,13 +5358,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5171,10 +5372,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -5183,10 +5384,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>425</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -5195,10 +5396,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -5207,10 +5408,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -5219,10 +5420,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -5231,13 +5432,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>434</v>
-      </c>
       <c r="D23" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,10 +5446,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>435</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>436</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -5257,10 +5458,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -5269,10 +5470,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -5281,10 +5482,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>441</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>442</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -5293,10 +5494,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>443</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>444</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -5305,10 +5506,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -5317,10 +5518,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -5329,10 +5530,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="D31" s="6"/>
     </row>
@@ -5341,10 +5542,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="D32" s="6"/>
     </row>
@@ -5353,10 +5554,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="D33" s="6"/>
     </row>
@@ -5365,10 +5566,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>459</v>
       </c>
       <c r="D34" s="6"/>
     </row>
@@ -5377,10 +5578,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="D35" s="6"/>
     </row>
@@ -5389,10 +5590,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="D36" s="6"/>
     </row>
@@ -5401,10 +5602,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>467</v>
       </c>
       <c r="D37" s="6"/>
     </row>
@@ -5413,10 +5614,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="D38" s="6"/>
     </row>
@@ -5425,13 +5626,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,13 +5640,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,10 +5654,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -5468,7 +5669,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D42" s="6"/>
     </row>
@@ -5477,10 +5678,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="D43" s="6"/>
     </row>
@@ -5489,10 +5690,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>481</v>
       </c>
       <c r="D44" s="6"/>
     </row>
@@ -5501,13 +5702,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5515,10 +5716,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -5527,10 +5728,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>488</v>
       </c>
       <c r="D47" s="6"/>
     </row>
@@ -5539,10 +5740,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>490</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -5551,10 +5752,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -5563,10 +5764,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -5575,10 +5776,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -5587,10 +5788,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>498</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -5599,13 +5800,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>500</v>
-      </c>
       <c r="D53" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,13 +5814,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,10 +5828,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>505</v>
       </c>
       <c r="D55" s="6"/>
     </row>
@@ -5639,10 +5840,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -5651,10 +5852,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D57" s="6"/>
     </row>
@@ -5663,10 +5864,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -5675,10 +5876,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -5759,10 +5960,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="D66" s="6"/>
     </row>
@@ -5771,10 +5972,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>519</v>
       </c>
       <c r="D67" s="6"/>
     </row>
@@ -5783,10 +5984,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>521</v>
+        <v>667</v>
       </c>
       <c r="D68" s="6"/>
     </row>
@@ -5795,10 +5996,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D69" s="6"/>
     </row>
@@ -5807,10 +6008,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D70" s="6"/>
     </row>
@@ -5819,10 +6020,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D71" s="6"/>
     </row>
@@ -5831,10 +6032,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D72" s="6"/>
     </row>
@@ -5843,10 +6044,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D73" s="6"/>
     </row>
@@ -5855,10 +6056,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D74" s="6"/>
     </row>
@@ -5867,10 +6068,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D75" s="6"/>
     </row>
@@ -5879,10 +6080,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D76" s="6"/>
     </row>
@@ -5891,13 +6092,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,13 +6106,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,13 +6120,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,13 +6134,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,10 +6148,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D81" s="6"/>
     </row>
@@ -5959,10 +6160,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D82" s="6"/>
     </row>
@@ -5971,10 +6172,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D83" s="6"/>
     </row>
@@ -5983,10 +6184,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D84" s="6"/>
     </row>
@@ -5995,10 +6196,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D85" s="6"/>
     </row>
@@ -6007,10 +6208,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D86" s="6"/>
     </row>
@@ -6019,13 +6220,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>566</v>
-      </c>
       <c r="D87" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6033,10 +6234,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D88" s="6"/>
     </row>
@@ -6045,10 +6246,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D89" s="6"/>
     </row>
@@ -6057,13 +6258,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,13 +6272,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,13 +6286,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -6099,13 +6300,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6113,10 +6314,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D94" s="6"/>
     </row>
@@ -6125,10 +6326,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D95" s="6"/>
     </row>
@@ -6137,10 +6338,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D96" s="6"/>
     </row>
@@ -6149,10 +6350,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D97" s="6"/>
     </row>
@@ -6161,10 +6362,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D98" s="6"/>
     </row>
@@ -6173,10 +6374,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D99" s="6"/>
     </row>
@@ -6185,10 +6386,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D100" s="6"/>
     </row>
@@ -6197,10 +6398,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D101" s="6"/>
     </row>
@@ -6209,10 +6410,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D102" s="6"/>
     </row>
@@ -6221,10 +6422,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
       <c r="D103" s="6"/>
     </row>
@@ -6233,10 +6434,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D104" s="6"/>
     </row>
@@ -6245,10 +6446,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D105" s="6"/>
     </row>
@@ -6257,10 +6458,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D106" s="6"/>
     </row>
@@ -6269,10 +6470,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D107" s="6"/>
     </row>
@@ -6281,10 +6482,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D108" s="6"/>
     </row>
@@ -6293,13 +6494,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="D109" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6307,13 +6508,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,10 +6522,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D111" s="6"/>
     </row>
@@ -6333,10 +6534,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D112" s="6"/>
     </row>
@@ -6345,12 +6546,414 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>113</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="C115" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>115</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>116</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>117</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>119</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
+        <v>122</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>123</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
+        <v>124</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
+        <v>125</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>127</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
+        <v>128</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>129</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
+        <v>130</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
+        <v>131</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>133</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
+        <v>134</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>135</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
+        <v>136</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
+        <v>137</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
+        <v>139</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="9">
+        <v>140</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
+        <v>141</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
+        <v>142</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
+        <v>143</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
+        <v>145</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D146" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6362,7 +6965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8BE501-0A60-4C46-B977-290D1D72852D}">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -6391,10 +6994,10 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
         <v>367</v>
-      </c>
-      <c r="C3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -6407,50 +7010,50 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
         <v>245</v>
-      </c>
-      <c r="C5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
         <v>294</v>
-      </c>
-      <c r="C6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" t="s">
         <v>354</v>
-      </c>
-      <c r="C7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" t="s">
         <v>445</v>
-      </c>
-      <c r="C8" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -6475,147 +7078,147 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>379</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>381</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="D17" s="4"/>
     </row>
